--- a/таблицы тест кейсов_вк.xlsx
+++ b/таблицы тест кейсов_вк.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Тестирование-доп обр\ДЗ\ДЗ6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalie\Documents\GitHub\Reposit_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AEFD1E-AB6C-4FC3-B38F-75E00159B321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D66AB-5348-4F1E-B6D4-D9A2039E492C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>passed</t>
   </si>
@@ -915,6 +915,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -923,30 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1344,8 +1344,8 @@
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1434,7 +1434,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1561,43 +1561,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="50" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="50" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="42"/>
+      <c r="P6" s="50"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="42"/>
+      <c r="R6" s="50"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="42"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1607,29 +1607,29 @@
     </row>
     <row r="7" spans="1:124" ht="75.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="42"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="42"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="42"/>
+      <c r="R7" s="50"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="42"/>
+      <c r="T7" s="50"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1659,7 +1659,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1695,7 +1697,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1731,7 +1735,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1997,7 +2003,7 @@
       <c r="C15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="42" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -2033,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="31" t="s">
@@ -2068,7 +2074,7 @@
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2104,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="42" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -2140,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="42" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -2176,7 +2182,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -2212,7 +2218,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="42" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2248,7 +2254,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="42" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -2284,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="42" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -2320,7 +2326,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="42" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -2350,7 +2356,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="75">
+    <row r="25" spans="1:26" ht="60">
       <c r="A25" s="12"/>
       <c r="B25" s="3">
         <v>18</v>
@@ -2388,7 +2394,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="135">
+    <row r="26" spans="1:26" ht="120">
       <c r="A26" s="12"/>
       <c r="B26" s="3">
         <v>19</v>
@@ -2424,7 +2430,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="135">
+    <row r="27" spans="1:26" ht="120">
       <c r="A27" s="12"/>
       <c r="B27" s="3">
         <v>20</v>
@@ -2460,7 +2466,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="135">
+    <row r="28" spans="1:26" ht="120">
       <c r="A28" s="12"/>
       <c r="B28" s="3">
         <v>21</v>
@@ -2496,7 +2502,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="165">
+    <row r="29" spans="1:26" ht="120">
       <c r="A29" s="12"/>
       <c r="B29" s="3">
         <v>22</v>
@@ -2532,7 +2538,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="105">
+    <row r="30" spans="1:26" ht="90">
       <c r="A30" s="12"/>
       <c r="B30" s="3">
         <v>23</v>
@@ -2568,7 +2574,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="180">
+    <row r="31" spans="1:26" ht="150">
       <c r="A31" s="12"/>
       <c r="B31" s="3">
         <v>24</v>
@@ -2604,7 +2610,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="165">
+    <row r="32" spans="1:26" ht="150">
       <c r="A32" s="12"/>
       <c r="B32" s="3">
         <v>25</v>
@@ -2640,7 +2646,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="165">
+    <row r="33" spans="1:26" ht="120">
       <c r="A33" s="12"/>
       <c r="B33" s="3">
         <v>26</v>
@@ -2676,7 +2682,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="180">
+    <row r="34" spans="1:26" ht="135">
       <c r="A34" s="12"/>
       <c r="B34" s="3">
         <v>27</v>
@@ -3411,12 +3417,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3424,6 +3424,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42" xr:uid="{00000000-0002-0000-0100-000000000000}">
